--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>90.6794528726259</v>
+        <v>0.763974</v>
       </c>
       <c r="H2">
-        <v>90.6794528726259</v>
+        <v>1.527948</v>
       </c>
       <c r="I2">
-        <v>0.9637614404151585</v>
+        <v>0.007505519483089857</v>
       </c>
       <c r="J2">
-        <v>0.9637614404151585</v>
+        <v>0.005100827615079263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.8323460610387</v>
+        <v>23.491999</v>
       </c>
       <c r="N2">
-        <v>20.8323460610387</v>
+        <v>70.47599700000001</v>
       </c>
       <c r="O2">
-        <v>0.9742918628990522</v>
+        <v>0.9619968963054429</v>
       </c>
       <c r="P2">
-        <v>0.9742918628990522</v>
+        <v>0.9627593424892741</v>
       </c>
       <c r="Q2">
-        <v>1889.065742868193</v>
+        <v>17.947276444026</v>
       </c>
       <c r="R2">
-        <v>1889.065742868193</v>
+        <v>107.683658664156</v>
       </c>
       <c r="S2">
-        <v>0.9389849291723588</v>
+        <v>0.007220286447892474</v>
       </c>
       <c r="T2">
-        <v>0.9389849291723588</v>
+        <v>0.004910869440844843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +590,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>90.6794528726259</v>
+        <v>0.763974</v>
       </c>
       <c r="H3">
-        <v>90.6794528726259</v>
+        <v>1.527948</v>
       </c>
       <c r="I3">
-        <v>0.9637614404151585</v>
+        <v>0.007505519483089857</v>
       </c>
       <c r="J3">
-        <v>0.9637614404151585</v>
+        <v>0.005100827615079263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.549692375627552</v>
+        <v>0.2083866666666666</v>
       </c>
       <c r="N3">
-        <v>0.549692375627552</v>
+        <v>0.6251599999999999</v>
       </c>
       <c r="O3">
-        <v>0.02570813710094783</v>
+        <v>0.008533429895206883</v>
       </c>
       <c r="P3">
-        <v>0.02570813710094783</v>
+        <v>0.008540193202950993</v>
       </c>
       <c r="Q3">
-        <v>49.84580387016038</v>
+        <v>0.15920199528</v>
       </c>
       <c r="R3">
-        <v>49.84580387016038</v>
+        <v>0.9552119716799999</v>
       </c>
       <c r="S3">
-        <v>0.02477651124279985</v>
+        <v>6.40478243360567E-05</v>
       </c>
       <c r="T3">
-        <v>0.02477651124279985</v>
+        <v>4.356205332772464E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.63301421254448</v>
+        <v>0.763974</v>
       </c>
       <c r="H4">
-        <v>0.63301421254448</v>
+        <v>1.527948</v>
       </c>
       <c r="I4">
-        <v>0.006727816169580168</v>
+        <v>0.007505519483089857</v>
       </c>
       <c r="J4">
-        <v>0.006727816169580168</v>
+        <v>0.005100827615079263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.8323460610387</v>
+        <v>0.6429943333333333</v>
       </c>
       <c r="N4">
-        <v>20.8323460610387</v>
+        <v>1.928983</v>
       </c>
       <c r="O4">
-        <v>0.9742918628990522</v>
+        <v>0.02633060528432059</v>
       </c>
       <c r="P4">
-        <v>0.9742918628990522</v>
+        <v>0.02635147403098089</v>
       </c>
       <c r="Q4">
-        <v>13.18717113728251</v>
+        <v>0.491230952814</v>
       </c>
       <c r="R4">
-        <v>13.18717113728251</v>
+        <v>2.947385716884</v>
       </c>
       <c r="S4">
-        <v>0.006554856549102627</v>
+        <v>0.0001976248709630169</v>
       </c>
       <c r="T4">
-        <v>0.006554856549102627</v>
+        <v>0.0001344143264352714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.63301421254448</v>
+        <v>0.763974</v>
       </c>
       <c r="H5">
-        <v>0.63301421254448</v>
+        <v>1.527948</v>
       </c>
       <c r="I5">
-        <v>0.006727816169580168</v>
+        <v>0.007505519483089857</v>
       </c>
       <c r="J5">
-        <v>0.006727816169580168</v>
+        <v>0.005100827615079263</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.549692375627552</v>
+        <v>0.01863866666666667</v>
       </c>
       <c r="N5">
-        <v>0.549692375627552</v>
+        <v>0.055916</v>
       </c>
       <c r="O5">
-        <v>0.02570813710094783</v>
+        <v>0.0007632530328562098</v>
       </c>
       <c r="P5">
-        <v>0.02570813710094783</v>
+        <v>0.0007638579613798191</v>
       </c>
       <c r="Q5">
-        <v>0.3479630862995793</v>
+        <v>0.014239456728</v>
       </c>
       <c r="R5">
-        <v>0.3479630862995793</v>
+        <v>0.085436740368</v>
       </c>
       <c r="S5">
-        <v>0.0001729596204775406</v>
+        <v>5.728610508629706E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001729596204775406</v>
+        <v>3.896307783404331E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.77663948207721</v>
+        <v>0.763974</v>
       </c>
       <c r="H6">
-        <v>2.77663948207721</v>
+        <v>1.527948</v>
       </c>
       <c r="I6">
-        <v>0.02951074341526119</v>
+        <v>0.007505519483089857</v>
       </c>
       <c r="J6">
-        <v>0.02951074341526119</v>
+        <v>0.005100827615079263</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>20.8323460610387</v>
+        <v>0.0580175</v>
       </c>
       <c r="N6">
-        <v>20.8323460610387</v>
+        <v>0.116035</v>
       </c>
       <c r="O6">
-        <v>0.9742918628990522</v>
+        <v>0.002375815482173358</v>
       </c>
       <c r="P6">
-        <v>0.9742918628990522</v>
+        <v>0.001585132315414324</v>
       </c>
       <c r="Q6">
-        <v>57.8439145773757</v>
+        <v>0.044323861545</v>
       </c>
       <c r="R6">
-        <v>57.8439145773757</v>
+        <v>0.17729544618</v>
       </c>
       <c r="S6">
-        <v>0.02875207717759076</v>
+        <v>1.783172938967866E-05</v>
       </c>
       <c r="T6">
-        <v>0.02875207717759076</v>
+        <v>8.085486688019914E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>95.14554866666667</v>
+      </c>
+      <c r="H7">
+        <v>285.436646</v>
+      </c>
+      <c r="I7">
+        <v>0.934739623661199</v>
+      </c>
+      <c r="J7">
+        <v>0.9528878772526316</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.491999</v>
+      </c>
+      <c r="N7">
+        <v>70.47599700000001</v>
+      </c>
+      <c r="O7">
+        <v>0.9619968963054429</v>
+      </c>
+      <c r="P7">
+        <v>0.9627593424892741</v>
+      </c>
+      <c r="Q7">
+        <v>2235.159134131785</v>
+      </c>
+      <c r="R7">
+        <v>20116.43220718606</v>
+      </c>
+      <c r="S7">
+        <v>0.8992166168157912</v>
+      </c>
+      <c r="T7">
+        <v>0.9174017061697437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>95.14554866666667</v>
+      </c>
+      <c r="H8">
+        <v>285.436646</v>
+      </c>
+      <c r="I8">
+        <v>0.934739623661199</v>
+      </c>
+      <c r="J8">
+        <v>0.9528878772526316</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2083866666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.6251599999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.008533429895206883</v>
+      </c>
+      <c r="P8">
+        <v>0.008540193202950993</v>
+      </c>
+      <c r="Q8">
+        <v>19.82706373481778</v>
+      </c>
+      <c r="R8">
+        <v>178.44357361336</v>
+      </c>
+      <c r="S8">
+        <v>0.007976535048784907</v>
+      </c>
+      <c r="T8">
+        <v>0.008137846572487324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>95.14554866666667</v>
+      </c>
+      <c r="H9">
+        <v>285.436646</v>
+      </c>
+      <c r="I9">
+        <v>0.934739623661199</v>
+      </c>
+      <c r="J9">
+        <v>0.9528878772526316</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6429943333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.928983</v>
+      </c>
+      <c r="O9">
+        <v>0.02633060528432059</v>
+      </c>
+      <c r="P9">
+        <v>0.02635147403098089</v>
+      </c>
+      <c r="Q9">
+        <v>61.17804863455756</v>
+      </c>
+      <c r="R9">
+        <v>550.6024377110181</v>
+      </c>
+      <c r="S9">
+        <v>0.02461226007423741</v>
+      </c>
+      <c r="T9">
+        <v>0.02511000015185923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>95.14554866666667</v>
+      </c>
+      <c r="H10">
+        <v>285.436646</v>
+      </c>
+      <c r="I10">
+        <v>0.934739623661199</v>
+      </c>
+      <c r="J10">
+        <v>0.9528878772526316</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01863866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.055916</v>
+      </c>
+      <c r="O10">
+        <v>0.0007632530328562098</v>
+      </c>
+      <c r="P10">
+        <v>0.0007638579613798191</v>
+      </c>
+      <c r="Q10">
+        <v>1.773386166415111</v>
+      </c>
+      <c r="R10">
+        <v>15.960475497736</v>
+      </c>
+      <c r="S10">
+        <v>0.0007134428526902823</v>
+      </c>
+      <c r="T10">
+        <v>0.0007278709913417384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.77663948207721</v>
-      </c>
-      <c r="H7">
-        <v>2.77663948207721</v>
-      </c>
-      <c r="I7">
-        <v>0.02951074341526119</v>
-      </c>
-      <c r="J7">
-        <v>0.02951074341526119</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.549692375627552</v>
-      </c>
-      <c r="N7">
-        <v>0.549692375627552</v>
-      </c>
-      <c r="O7">
-        <v>0.02570813710094783</v>
-      </c>
-      <c r="P7">
-        <v>0.02570813710094783</v>
-      </c>
-      <c r="Q7">
-        <v>1.526297553164277</v>
-      </c>
-      <c r="R7">
-        <v>1.526297553164277</v>
-      </c>
-      <c r="S7">
-        <v>0.0007586662376704278</v>
-      </c>
-      <c r="T7">
-        <v>0.0007586662376704278</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>95.14554866666667</v>
+      </c>
+      <c r="H11">
+        <v>285.436646</v>
+      </c>
+      <c r="I11">
+        <v>0.934739623661199</v>
+      </c>
+      <c r="J11">
+        <v>0.9528878772526316</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0580175</v>
+      </c>
+      <c r="N11">
+        <v>0.116035</v>
+      </c>
+      <c r="O11">
+        <v>0.002375815482173358</v>
+      </c>
+      <c r="P11">
+        <v>0.001585132315414324</v>
+      </c>
+      <c r="Q11">
+        <v>5.520106869768333</v>
+      </c>
+      <c r="R11">
+        <v>33.12064121861</v>
+      </c>
+      <c r="S11">
+        <v>0.002220768869695174</v>
+      </c>
+      <c r="T11">
+        <v>0.001510453367199704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02384366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.071531</v>
+      </c>
+      <c r="I12">
+        <v>0.0002342476376355306</v>
+      </c>
+      <c r="J12">
+        <v>0.0002387956266405891</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.491999</v>
+      </c>
+      <c r="N12">
+        <v>70.47599700000001</v>
+      </c>
+      <c r="O12">
+        <v>0.9619968963054429</v>
+      </c>
+      <c r="P12">
+        <v>0.9627593424892741</v>
+      </c>
+      <c r="Q12">
+        <v>0.5601353934896667</v>
+      </c>
+      <c r="R12">
+        <v>5.041218541407</v>
+      </c>
+      <c r="S12">
+        <v>0.0002253455003722625</v>
+      </c>
+      <c r="T12">
+        <v>0.0002299027204938077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02384366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.071531</v>
+      </c>
+      <c r="I13">
+        <v>0.0002342476376355306</v>
+      </c>
+      <c r="J13">
+        <v>0.0002387956266405891</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2083866666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.6251599999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.008533429895206883</v>
+      </c>
+      <c r="P13">
+        <v>0.008540193202950993</v>
+      </c>
+      <c r="Q13">
+        <v>0.004968702217777777</v>
+      </c>
+      <c r="R13">
+        <v>0.04471831996</v>
+      </c>
+      <c r="S13">
+        <v>1.998935793880626E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.039360787530382E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02384366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.071531</v>
+      </c>
+      <c r="I14">
+        <v>0.0002342476376355306</v>
+      </c>
+      <c r="J14">
+        <v>0.0002387956266405891</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6429943333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.928983</v>
+      </c>
+      <c r="O14">
+        <v>0.02633060528432059</v>
+      </c>
+      <c r="P14">
+        <v>0.02635147403098089</v>
+      </c>
+      <c r="Q14">
+        <v>0.01533134255255555</v>
+      </c>
+      <c r="R14">
+        <v>0.137982082973</v>
+      </c>
+      <c r="S14">
+        <v>6.167882085365716E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.292616754131292E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02384366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.071531</v>
+      </c>
+      <c r="I15">
+        <v>0.0002342476376355306</v>
+      </c>
+      <c r="J15">
+        <v>0.0002387956266405891</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01863866666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.055916</v>
+      </c>
+      <c r="O15">
+        <v>0.0007632530328562098</v>
+      </c>
+      <c r="P15">
+        <v>0.0007638579613798191</v>
+      </c>
+      <c r="Q15">
+        <v>0.0004444141551111111</v>
+      </c>
+      <c r="R15">
+        <v>0.003999727396</v>
+      </c>
+      <c r="S15">
+        <v>1.787902198647211E-07</v>
+      </c>
+      <c r="T15">
+        <v>1.824059405520968E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02384366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.071531</v>
+      </c>
+      <c r="I16">
+        <v>0.0002342476376355306</v>
+      </c>
+      <c r="J16">
+        <v>0.0002387956266405891</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0580175</v>
+      </c>
+      <c r="N16">
+        <v>0.116035</v>
+      </c>
+      <c r="O16">
+        <v>0.002375815482173358</v>
+      </c>
+      <c r="P16">
+        <v>0.001585132315414324</v>
+      </c>
+      <c r="Q16">
+        <v>0.001383349930833333</v>
+      </c>
+      <c r="R16">
+        <v>0.008300099585</v>
+      </c>
+      <c r="S16">
+        <v>5.56529164157028E-07</v>
+      </c>
+      <c r="T16">
+        <v>3.785226645676112E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.803063</v>
+      </c>
+      <c r="H17">
+        <v>2.409189</v>
+      </c>
+      <c r="I17">
+        <v>0.007889542042855633</v>
+      </c>
+      <c r="J17">
+        <v>0.008042719896976334</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.491999</v>
+      </c>
+      <c r="N17">
+        <v>70.47599700000001</v>
+      </c>
+      <c r="O17">
+        <v>0.9619968963054429</v>
+      </c>
+      <c r="P17">
+        <v>0.9627593424892741</v>
+      </c>
+      <c r="Q17">
+        <v>18.865555192937</v>
+      </c>
+      <c r="R17">
+        <v>169.789996736433</v>
+      </c>
+      <c r="S17">
+        <v>0.007589714958498423</v>
+      </c>
+      <c r="T17">
+        <v>0.007743203719838337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.803063</v>
+      </c>
+      <c r="H18">
+        <v>2.409189</v>
+      </c>
+      <c r="I18">
+        <v>0.007889542042855633</v>
+      </c>
+      <c r="J18">
+        <v>0.008042719896976334</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2083866666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.6251599999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.008533429895206883</v>
+      </c>
+      <c r="P18">
+        <v>0.008540193202950993</v>
+      </c>
+      <c r="Q18">
+        <v>0.1673476216933333</v>
+      </c>
+      <c r="R18">
+        <v>1.50612859524</v>
+      </c>
+      <c r="S18">
+        <v>6.732485392799584E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.8686381797396E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.803063</v>
+      </c>
+      <c r="H19">
+        <v>2.409189</v>
+      </c>
+      <c r="I19">
+        <v>0.007889542042855633</v>
+      </c>
+      <c r="J19">
+        <v>0.008042719896976334</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6429943333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.928983</v>
+      </c>
+      <c r="O19">
+        <v>0.02633060528432059</v>
+      </c>
+      <c r="P19">
+        <v>0.02635147403098089</v>
+      </c>
+      <c r="Q19">
+        <v>0.5163649583096667</v>
+      </c>
+      <c r="R19">
+        <v>4.647284624787</v>
+      </c>
+      <c r="S19">
+        <v>0.000207736417404484</v>
+      </c>
+      <c r="T19">
+        <v>0.0002119375245036252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.803063</v>
+      </c>
+      <c r="H20">
+        <v>2.409189</v>
+      </c>
+      <c r="I20">
+        <v>0.007889542042855633</v>
+      </c>
+      <c r="J20">
+        <v>0.008042719896976334</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01863866666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.055916</v>
+      </c>
+      <c r="O20">
+        <v>0.0007632530328562098</v>
+      </c>
+      <c r="P20">
+        <v>0.0007638579613798191</v>
+      </c>
+      <c r="Q20">
+        <v>0.01496802356933333</v>
+      </c>
+      <c r="R20">
+        <v>0.134712212124</v>
+      </c>
+      <c r="S20">
+        <v>6.02171689205614E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.143495624453251E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.803063</v>
+      </c>
+      <c r="H21">
+        <v>2.409189</v>
+      </c>
+      <c r="I21">
+        <v>0.007889542042855633</v>
+      </c>
+      <c r="J21">
+        <v>0.008042719896976334</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0580175</v>
+      </c>
+      <c r="N21">
+        <v>0.116035</v>
+      </c>
+      <c r="O21">
+        <v>0.002375815482173358</v>
+      </c>
+      <c r="P21">
+        <v>0.001585132315414324</v>
+      </c>
+      <c r="Q21">
+        <v>0.0465917076025</v>
+      </c>
+      <c r="R21">
+        <v>0.279550245615</v>
+      </c>
+      <c r="S21">
+        <v>1.874409613267403E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.274877521252295E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.0518615</v>
+      </c>
+      <c r="H22">
+        <v>10.103723</v>
+      </c>
+      <c r="I22">
+        <v>0.04963106717522003</v>
+      </c>
+      <c r="J22">
+        <v>0.03372977960867222</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>23.491999</v>
+      </c>
+      <c r="N22">
+        <v>70.47599700000001</v>
+      </c>
+      <c r="O22">
+        <v>0.9619968963054429</v>
+      </c>
+      <c r="P22">
+        <v>0.9627593424892741</v>
+      </c>
+      <c r="Q22">
+        <v>118.6783253061385</v>
+      </c>
+      <c r="R22">
+        <v>712.0699518368311</v>
+      </c>
+      <c r="S22">
+        <v>0.04774493258288862</v>
+      </c>
+      <c r="T22">
+        <v>0.03247366043835339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.0518615</v>
+      </c>
+      <c r="H23">
+        <v>10.103723</v>
+      </c>
+      <c r="I23">
+        <v>0.04963106717522003</v>
+      </c>
+      <c r="J23">
+        <v>0.03372977960867222</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2083866666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.6251599999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.008533429895206883</v>
+      </c>
+      <c r="P23">
+        <v>0.008540193202950993</v>
+      </c>
+      <c r="Q23">
+        <v>1.052740578446667</v>
+      </c>
+      <c r="R23">
+        <v>6.316443470679999</v>
+      </c>
+      <c r="S23">
+        <v>0.0004235232323640437</v>
+      </c>
+      <c r="T23">
+        <v>0.0002880588345510175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.0518615</v>
+      </c>
+      <c r="H24">
+        <v>10.103723</v>
+      </c>
+      <c r="I24">
+        <v>0.04963106717522003</v>
+      </c>
+      <c r="J24">
+        <v>0.03372977960867222</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6429943333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.928983</v>
+      </c>
+      <c r="O24">
+        <v>0.02633060528432059</v>
+      </c>
+      <c r="P24">
+        <v>0.02635147403098089</v>
+      </c>
+      <c r="Q24">
+        <v>3.248318317284833</v>
+      </c>
+      <c r="R24">
+        <v>19.489909903709</v>
+      </c>
+      <c r="S24">
+        <v>0.001306816039630319</v>
+      </c>
+      <c r="T24">
+        <v>0.0008888294114286349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.0518615</v>
+      </c>
+      <c r="H25">
+        <v>10.103723</v>
+      </c>
+      <c r="I25">
+        <v>0.04963106717522003</v>
+      </c>
+      <c r="J25">
+        <v>0.03372977960867222</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.01863866666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.055916</v>
+      </c>
+      <c r="O25">
+        <v>0.0007632530328562098</v>
+      </c>
+      <c r="P25">
+        <v>0.0007638579613798191</v>
+      </c>
+      <c r="Q25">
+        <v>0.09415996254466667</v>
+      </c>
+      <c r="R25">
+        <v>0.564959775268</v>
+      </c>
+      <c r="S25">
+        <v>3.788106254537697E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.576476068967095E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.0518615</v>
+      </c>
+      <c r="H26">
+        <v>10.103723</v>
+      </c>
+      <c r="I26">
+        <v>0.04963106717522003</v>
+      </c>
+      <c r="J26">
+        <v>0.03372977960867222</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0580175</v>
+      </c>
+      <c r="N26">
+        <v>0.116035</v>
+      </c>
+      <c r="O26">
+        <v>0.002375815482173358</v>
+      </c>
+      <c r="P26">
+        <v>0.001585132315414324</v>
+      </c>
+      <c r="Q26">
+        <v>0.29309637457625</v>
+      </c>
+      <c r="R26">
+        <v>1.172385498305</v>
+      </c>
+      <c r="S26">
+        <v>0.0001179142577916737</v>
+      </c>
+      <c r="T26">
+        <v>5.346616364950943E-05</v>
       </c>
     </row>
   </sheetData>
